--- a/fixtures/10 - aroma.xlsx
+++ b/fixtures/10 - aroma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Hanzal\Projects\github.com\marek-hanzal\puff-smith\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55CA653-6A92-4BE3-9E04-244EF885FEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68CECF7-D123-4D58-A28B-28DFBD2A526F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26850" yWindow="1680" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="3600" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>tab</t>
   </si>
@@ -49,15 +49,9 @@
     <t>No. 09 Bourbon</t>
   </si>
   <si>
-    <t>Rocket Girl</t>
-  </si>
-  <si>
     <t>Tropic Thunder</t>
   </si>
   <si>
-    <t>Spearmint Lemon Star</t>
-  </si>
-  <si>
     <t>Dekang</t>
   </si>
   <si>
@@ -119,6 +113,33 @@
   </si>
   <si>
     <t>aroma</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>Crazy Flavour</t>
+  </si>
+  <si>
+    <t>Drachenblut Black</t>
+  </si>
+  <si>
+    <t>Exotic Dream SnV</t>
+  </si>
+  <si>
+    <t>Jace Liquids</t>
+  </si>
+  <si>
+    <t>Rocket Girl - Spearmint Lemon Star</t>
+  </si>
+  <si>
+    <t>Rocket Girl - Mango Boost</t>
+  </si>
+  <si>
+    <t>PJ Empire</t>
+  </si>
+  <si>
+    <t>High Rider Black Jack</t>
   </si>
 </sst>
 </file>
@@ -480,10 +501,10 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -493,24 +514,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7847F66-32D3-4015-A1DD-E1168BFD1F23}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -518,45 +540,51 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>75</v>
       </c>
-      <c r="G2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -567,227 +595,366 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>75</v>
       </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>75</v>
       </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
         <v>30</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>70</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>15</v>
       </c>
-      <c r="G5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
         <v>30</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>70</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>15</v>
       </c>
-      <c r="G6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>30</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>70</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>15</v>
       </c>
-      <c r="G7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>50</v>
       </c>
       <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
         <v>15</v>
       </c>
-      <c r="G8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>20</v>
       </c>
       <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
         <v>30</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>70</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>150</v>
       </c>
-      <c r="G9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>20</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>20</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>20</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>150</v>
       </c>
-      <c r="G12">
+      <c r="H12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>125</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>120</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>175</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>150</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>150</v>
+      </c>
+      <c r="H16">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.eliquidshop.cz/vyrobce-jace-liquids-a1322/" xr:uid="{9ECFE6D1-0640-4BF9-ABC6-A368B2F636DB}"/>
+    <hyperlink ref="A15" r:id="rId2" display="https://www.eliquidshop.cz/vyrobce-jace-liquids-a1322/" xr:uid="{19F13E04-E2D4-45FE-8883-FC1527BDE8AE}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.eliquidshop.cz/pj-empire-a731/" xr:uid="{AF7233D2-D771-460B-8798-1FE24046339F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/fixtures/10 - aroma.xlsx
+++ b/fixtures/10 - aroma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Hanzal\Projects\github.com\marek-hanzal\puff-smith\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68CECF7-D123-4D58-A28B-28DFBD2A526F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8112F09F-EC21-4BD9-9503-56D719C3F112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="3600" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="1260" windowWidth="23610" windowHeight="18390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>tab</t>
   </si>
@@ -140,6 +140,75 @@
   </si>
   <si>
     <t>High Rider Black Jack</t>
+  </si>
+  <si>
+    <t>IVG</t>
+  </si>
+  <si>
+    <t>Neon Lime</t>
+  </si>
+  <si>
+    <t>Green Drops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubble Trouble </t>
+  </si>
+  <si>
+    <t>Antimatter</t>
+  </si>
+  <si>
+    <t>Black hole</t>
+  </si>
+  <si>
+    <t>Expromizer</t>
+  </si>
+  <si>
+    <t>V2 - Vanille Karamell</t>
+  </si>
+  <si>
+    <t>Aeon</t>
+  </si>
+  <si>
+    <t>Shake - Strawberry Milkshake &amp; Cookies</t>
+  </si>
+  <si>
+    <t>Tropical Fruits</t>
+  </si>
+  <si>
+    <t>V3 - Tabak Vanille</t>
+  </si>
+  <si>
+    <t>Lemon Tart</t>
+  </si>
+  <si>
+    <t>KTS</t>
+  </si>
+  <si>
+    <t>Rocks - Mangooh</t>
+  </si>
+  <si>
+    <t>Tea - Honig</t>
+  </si>
+  <si>
+    <t>Berliner</t>
+  </si>
+  <si>
+    <t>Papa Smurf's Blood</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Lemon Cake</t>
+  </si>
+  <si>
+    <t>Core - Honeydew Melonade</t>
+  </si>
+  <si>
+    <t>Core - Tropical Thunder</t>
+  </si>
+  <si>
+    <t>Tobacco Town</t>
   </si>
 </sst>
 </file>
@@ -514,16 +583,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7847F66-32D3-4015-A1DD-E1168BFD1F23}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
@@ -560,16 +629,16 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -578,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -586,16 +655,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -604,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -612,16 +681,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -630,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -638,25 +707,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -667,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -693,7 +762,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -716,10 +785,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -728,10 +797,10 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -742,10 +811,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -754,13 +823,13 @@
         <v>60</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="H9">
         <v>14</v>
@@ -768,16 +837,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>20</v>
       </c>
       <c r="D10">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -786,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="H10">
         <v>14</v>
@@ -794,16 +863,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>20</v>
       </c>
       <c r="D11">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -812,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="H11">
         <v>14</v>
@@ -820,10 +889,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -838,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="H12">
         <v>14</v>
@@ -846,10 +915,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -864,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="H13">
         <v>14</v>
@@ -872,16 +941,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>20</v>
       </c>
       <c r="D14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -890,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="H14">
         <v>14</v>
@@ -898,25 +967,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
         <v>15</v>
-      </c>
-      <c r="D15">
-        <v>60</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>150</v>
       </c>
       <c r="H15">
         <v>14</v>
@@ -924,13 +993,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>60</v>
@@ -945,14 +1014,459 @@
         <v>150</v>
       </c>
       <c r="H16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>150</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>70</v>
+      </c>
+      <c r="G18">
+        <v>150</v>
+      </c>
+      <c r="H18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>120</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>150</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>120</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>175</v>
+      </c>
+      <c r="H21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>60</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>150</v>
+      </c>
+      <c r="H22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>75</v>
+      </c>
+      <c r="H23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>150</v>
+      </c>
+      <c r="H24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>120</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>150</v>
+      </c>
+      <c r="H25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>120</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>150</v>
+      </c>
+      <c r="H26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>120</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>120</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>175</v>
+      </c>
+      <c r="H28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>120</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>175</v>
+      </c>
+      <c r="H29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>60</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>150</v>
+      </c>
+      <c r="H30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>150</v>
+      </c>
+      <c r="H31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>75</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>60</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>175</v>
+      </c>
+      <c r="H33">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H33">
+    <sortCondition ref="A19:A33"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://www.eliquidshop.cz/vyrobce-jace-liquids-a1322/" xr:uid="{9ECFE6D1-0640-4BF9-ABC6-A368B2F636DB}"/>
-    <hyperlink ref="A15" r:id="rId2" display="https://www.eliquidshop.cz/vyrobce-jace-liquids-a1322/" xr:uid="{19F13E04-E2D4-45FE-8883-FC1527BDE8AE}"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.eliquidshop.cz/pj-empire-a731/" xr:uid="{AF7233D2-D771-460B-8798-1FE24046339F}"/>
+    <hyperlink ref="A23" r:id="rId1" display="https://www.eliquidshop.cz/vyrobce-jace-liquids-a1322/" xr:uid="{9ECFE6D1-0640-4BF9-ABC6-A368B2F636DB}"/>
+    <hyperlink ref="A24" r:id="rId2" display="https://www.eliquidshop.cz/vyrobce-jace-liquids-a1322/" xr:uid="{19F13E04-E2D4-45FE-8883-FC1527BDE8AE}"/>
+    <hyperlink ref="A30" r:id="rId3" display="https://www.eliquidshop.cz/pj-empire-a731/" xr:uid="{AF7233D2-D771-460B-8798-1FE24046339F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
